--- a/Lista de Tablas DB AoE2DE - Giardelli Francisco.xlsx
+++ b/Lista de Tablas DB AoE2DE - Giardelli Francisco.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>Tabla</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>tecnologia_id</t>
-  </si>
-  <si>
-    <t>Recursos</t>
   </si>
 </sst>
 </file>
@@ -202,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -224,6 +221,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1086,49 +1089,25 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43">
-      <c r="A43" s="5"/>
-      <c r="B43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="B43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
